--- a/outputs-HGR-r202-archive/g__Enterococcus_B_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Enterococcus_B_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,20 +690,20 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_0.fasta</t>
+          <t>label_21673_4_43_20.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2413851045716336</v>
+        <v>0.2157382489855408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6807190204712111</v>
+        <v>0.7189068443161338</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07789587495715525</v>
+        <v>0.06535490669832532</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6807190204712111</v>
+        <v>0.7189068443161338</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -714,20 +714,20 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_12.fasta</t>
+          <t>label_21673_4_43_22.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.207687696261685</v>
+        <v>0.1827968979949054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7321733999882056</v>
+        <v>0.7603687797872382</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06013890375010934</v>
+        <v>0.05683432221785654</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7321733999882056</v>
+        <v>0.7603687797872382</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -738,20 +738,20 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_15.fasta</t>
+          <t>label_21673_4_43_1.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2052689953322417</v>
+        <v>0.245003705533837</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7345104105855157</v>
+        <v>0.7010815285861859</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06022059408224248</v>
+        <v>0.05391476587997702</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7345104105855157</v>
+        <v>0.7010815285861859</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -762,20 +762,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_3.fasta</t>
+          <t>label_21673_4_43_11.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2359508844843089</v>
+        <v>0.2371020255182587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6893499362115086</v>
+        <v>0.7109491479629149</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07469917930418246</v>
+        <v>0.05194882651882637</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6893499362115086</v>
+        <v>0.7109491479629149</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -786,20 +786,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_7.fasta</t>
+          <t>label_21673_4_43_13.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.246025865458073</v>
+        <v>0.2219053069690317</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6872667143149592</v>
+        <v>0.7282372553413564</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06670742022696775</v>
+        <v>0.04985743768961195</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6872667143149592</v>
+        <v>0.7282372553413564</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -810,20 +810,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_20.fasta</t>
+          <t>label_21673_4_43_16.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2157382489855408</v>
+        <v>0.2212766150072702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7189068443161338</v>
+        <v>0.7284274025450634</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06535490669832532</v>
+        <v>0.05029598244766637</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7189068443161338</v>
+        <v>0.7284274025450634</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -834,20 +834,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_22.fasta</t>
+          <t>label_21673_4_43_14.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1827968979949054</v>
+        <v>0.1737655246451676</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7603687797872382</v>
+        <v>0.7400895109070637</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05683432221785654</v>
+        <v>0.08614496444776881</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7603687797872382</v>
+        <v>0.7400895109070637</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -858,20 +858,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_1.fasta</t>
+          <t>label_21673_4_43_18.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.245003705533837</v>
+        <v>0.1237517931905134</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7010815285861859</v>
+        <v>0.8081226242901568</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05391476587997702</v>
+        <v>0.06812558251932994</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7010815285861859</v>
+        <v>0.8081226242901568</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -882,20 +882,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_11.fasta</t>
+          <t>label_21673_4_43_19.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2371020255182587</v>
+        <v>0.121121637698014</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7109491479629149</v>
+        <v>0.8067712234150322</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05194882651882637</v>
+        <v>0.07210713888695389</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7109491479629149</v>
+        <v>0.8067712234150322</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -906,20 +906,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_13.fasta</t>
+          <t>label_21673_4_43_21.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2219053069690317</v>
+        <v>0.02155415391750982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7282372553413564</v>
+        <v>0.8839037106112918</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04985743768961195</v>
+        <v>0.0945421354711983</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7282372553413564</v>
+        <v>0.8839037106112918</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -930,20 +930,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_16.fasta</t>
+          <t>label_21673_4_43_23.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2212766150072702</v>
+        <v>0.003095532319331106</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7284274025450634</v>
+        <v>0.8402947778869091</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05029598244766637</v>
+        <v>0.1566096897937597</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7284274025450634</v>
+        <v>0.8402947778869091</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -954,20 +954,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_14.fasta</t>
+          <t>label_21673_4_43_5.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1737655246451676</v>
+        <v>0.3891412294899489</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7400895109070637</v>
+        <v>0.5528159454018655</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08614496444776881</v>
+        <v>0.05804282510818555</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7400895109070637</v>
+        <v>0.5528159454018655</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -978,44 +978,44 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_18.fasta</t>
+          <t>label_21673_4_43_6.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1237517931905134</v>
+        <v>0.5595006201222069</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8081226242901568</v>
+        <v>0.4094522474207031</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06812558251932994</v>
+        <v>0.03104713245708985</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8081226242901568</v>
+        <v>0.5595006201222069</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>s__Enterococcus_B faecium</t>
+          <t>s__Enterococcus_B durans</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_19.fasta</t>
+          <t>label_21673_4_43_10.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.121121637698014</v>
+        <v>0.3775720505159565</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8067712234150322</v>
+        <v>0.5816111149103463</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07210713888695389</v>
+        <v>0.04081683457369712</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8067712234150322</v>
+        <v>0.5816111149103463</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1026,20 +1026,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_21.fasta</t>
+          <t>label_21673_4_43_17.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02155415391750982</v>
+        <v>0.279279332002052</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8839037106112918</v>
+        <v>0.6795479473028998</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0945421354711983</v>
+        <v>0.04117272069504827</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8839037106112918</v>
+        <v>0.6795479473028998</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1050,20 +1050,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_23.fasta</t>
+          <t>label_21673_4_43_2.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.003095532319331106</v>
+        <v>0.4021489441205457</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8402947778869091</v>
+        <v>0.5579372241115771</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1566096897937597</v>
+        <v>0.03991383176787727</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8402947778869091</v>
+        <v>0.5579372241115771</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_5.fasta</t>
+          <t>label_21673_4_43_4.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3891412294899489</v>
+        <v>0.3568029022527238</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5528159454018655</v>
+        <v>0.5998877653372378</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05804282510818555</v>
+        <v>0.0433093324100385</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5528159454018655</v>
+        <v>0.5998877653372378</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1098,166 +1098,46 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_6.fasta</t>
+          <t>label_21673_4_43_8.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5595006201222069</v>
+        <v>0.3616593898715572</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4094522474207031</v>
+        <v>0.5973493746274644</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03104713245708985</v>
+        <v>0.04099123550097843</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5595006201222069</v>
+        <v>0.5973493746274644</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>s__Enterococcus_B durans</t>
+          <t>s__Enterococcus_B faecium</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_21673_4_43_10.fasta</t>
+          <t>label_21673_4_43_9.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3775720505159565</v>
+        <v>0.3870384397527369</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5816111149103463</v>
+        <v>0.5753402439602593</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04081683457369712</v>
+        <v>0.03762131628700385</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5816111149103463</v>
+        <v>0.5753402439602593</v>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_43_17.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.279279332002052</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.6795479473028998</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.04117272069504827</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.6795479473028998</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_43_2.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.4021489441205457</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5579372241115771</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.03991383176787727</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5579372241115771</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_43_4.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.3568029022527238</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5998877653372378</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.0433093324100385</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5998877653372378</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_43_8.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.3616593898715572</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5973493746274644</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.04099123550097843</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5973493746274644</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_21673_4_43_9.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.3870384397527369</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5753402439602593</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.03762131628700385</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5753402439602593</v>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>s__Enterococcus_B faecium</t>
         </is>
@@ -1274,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,20 +1581,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_12.fasta</t>
+          <t>label_20298_2_33_11.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1863309383269255</v>
+        <v>0.124253523097775</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7439770807894506</v>
+        <v>0.8241245059999317</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06969198088362397</v>
+        <v>0.05162197090229326</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7439770807894506</v>
+        <v>0.8241245059999317</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1725,20 +1605,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_27.fasta</t>
+          <t>label_20298_2_33_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2079875174712577</v>
+        <v>0.183030968675656</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7338367381902868</v>
+        <v>0.7491080506171995</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05817574433845545</v>
+        <v>0.06786098070714455</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7338367381902868</v>
+        <v>0.7491080506171995</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1749,20 +1629,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_36.fasta</t>
+          <t>label_20298_2_33_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1793183156120277</v>
+        <v>0.1519069118245897</v>
       </c>
       <c r="C20" t="n">
-        <v>0.763022913637865</v>
+        <v>0.7916322581219543</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05765877075010738</v>
+        <v>0.05646083005345597</v>
       </c>
       <c r="E20" t="n">
-        <v>0.763022913637865</v>
+        <v>0.7916322581219543</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1773,20 +1653,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_4.fasta</t>
+          <t>label_20298_2_33_21.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.172843400075463</v>
+        <v>0.2572671339264817</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7523731842563227</v>
+        <v>0.6781700266543624</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07478341566821432</v>
+        <v>0.06456283941915589</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7523731842563227</v>
+        <v>0.6781700266543624</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1797,20 +1677,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_44.fasta</t>
+          <t>label_20298_2_33_22.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1820349628630714</v>
+        <v>0.3074816345393066</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7662016406388026</v>
+        <v>0.5952064037652207</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05176339649812601</v>
+        <v>0.09731196169547268</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7662016406388026</v>
+        <v>0.5952064037652207</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1821,20 +1701,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_48.fasta</t>
+          <t>label_20298_2_33_24.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1785104049769871</v>
+        <v>0.1820134734430988</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7683005146242384</v>
+        <v>0.7708404408842827</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05318908039877441</v>
+        <v>0.04714608567261835</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7683005146242384</v>
+        <v>0.7708404408842827</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1845,20 +1725,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_5.fasta</t>
+          <t>label_20298_2_33_29.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1796134101076313</v>
+        <v>0.1216944297084891</v>
       </c>
       <c r="C24" t="n">
-        <v>0.748335978406637</v>
+        <v>0.836403723337739</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07205061148573164</v>
+        <v>0.04190184695377188</v>
       </c>
       <c r="E24" t="n">
-        <v>0.748335978406637</v>
+        <v>0.836403723337739</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1869,20 +1749,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_54.fasta</t>
+          <t>label_20298_2_33_34.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1848968524824973</v>
+        <v>0.1275904400252056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7640956945461782</v>
+        <v>0.8280843145540326</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05100745297132453</v>
+        <v>0.04432524542076172</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7640956945461782</v>
+        <v>0.8280843145540326</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1893,20 +1773,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_58.fasta</t>
+          <t>label_20298_2_33_39.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1816173405522181</v>
+        <v>0.1137052134356055</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7703349835693977</v>
+        <v>0.8461367582528709</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0480476758783842</v>
+        <v>0.0401580283115235</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7703349835693977</v>
+        <v>0.8461367582528709</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1917,20 +1797,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_6.fasta</t>
+          <t>label_20298_2_33_40.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1851075395958741</v>
+        <v>0.1192927753193451</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7345392995146411</v>
+        <v>0.8391736613857118</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08035316088948476</v>
+        <v>0.04153356329494311</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7345392995146411</v>
+        <v>0.8391736613857118</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1941,20 +1821,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_61.fasta</t>
+          <t>label_20298_2_33_42.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1864801711623215</v>
+        <v>0.1911227470390997</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7665501551504472</v>
+        <v>0.7602735134571079</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04696967368723134</v>
+        <v>0.04860373950379245</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7665501551504472</v>
+        <v>0.7602735134571079</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1965,20 +1845,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_7.fasta</t>
+          <t>label_20298_2_33_47.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1710585862653893</v>
+        <v>0.1430886309023164</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7548411935408911</v>
+        <v>0.8123876188952318</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07410022019371967</v>
+        <v>0.04452375020245188</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7548411935408911</v>
+        <v>0.8123876188952318</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1989,20 +1869,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_70.fasta</t>
+          <t>label_20298_2_33_51.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1757648184614471</v>
+        <v>0.153857926260396</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7580753335066972</v>
+        <v>0.8015070716185573</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06615984803185571</v>
+        <v>0.04463500212104675</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7580753335066972</v>
+        <v>0.8015070716185573</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2013,20 +1893,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_72.fasta</t>
+          <t>label_20298_2_33_52.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1667312055034355</v>
+        <v>0.1226948159582451</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7807668645310034</v>
+        <v>0.8397186336322318</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05250192996556111</v>
+        <v>0.03758655040952305</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7807668645310034</v>
+        <v>0.8397186336322318</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2037,20 +1917,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_82.fasta</t>
+          <t>label_20298_2_33_53.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1531390377585896</v>
+        <v>0.1237133819221708</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7196751699796147</v>
+        <v>0.8380720494787777</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1271857922617957</v>
+        <v>0.03821456859905153</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7196751699796147</v>
+        <v>0.8380720494787777</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2061,20 +1941,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_83.fasta</t>
+          <t>label_20298_2_33_65.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1592709622962578</v>
+        <v>0.1020705009848511</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7289248053167133</v>
+        <v>0.8503778764269095</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1118042323870289</v>
+        <v>0.04755162258823939</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7289248053167133</v>
+        <v>0.8503778764269095</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2085,20 +1965,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_87.fasta</t>
+          <t>label_20298_2_33_69.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03480038806998335</v>
+        <v>0.09637504392838185</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7680212745350793</v>
+        <v>0.8407753543952896</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1971783373949373</v>
+        <v>0.06284960167632866</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7680212745350793</v>
+        <v>0.8407753543952896</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2109,20 +1989,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_89.fasta</t>
+          <t>label_20298_2_33_74.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1529503995479597</v>
+        <v>0.203184951752141</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6902406197772459</v>
+        <v>0.6149020033295288</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1568089806747944</v>
+        <v>0.1819130449183302</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6902406197772459</v>
+        <v>0.6149020033295288</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2133,20 +2013,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_11.fasta</t>
+          <t>label_20298_2_33_8.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.124253523097775</v>
+        <v>0.1156311914068282</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8241245059999317</v>
+        <v>0.8374865731708933</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05162197090229326</v>
+        <v>0.04688223542227844</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8241245059999317</v>
+        <v>0.8374865731708933</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2157,20 +2037,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_13.fasta</t>
+          <t>label_20298_2_33_84.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.183030968675656</v>
+        <v>0.03683630798930981</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7491080506171995</v>
+        <v>0.6835542336403729</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06786098070714455</v>
+        <v>0.2796094583703173</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7491080506171995</v>
+        <v>0.6835542336403729</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2181,20 +2061,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_19.fasta</t>
+          <t>label_20298_2_33_9.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1519069118245897</v>
+        <v>0.1562896479067234</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7916322581219543</v>
+        <v>0.7823939844352261</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05646083005345597</v>
+        <v>0.06131636765805042</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7916322581219543</v>
+        <v>0.7823939844352261</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2205,20 +2085,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_21.fasta</t>
+          <t>label_20298_2_33_1.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2572671339264817</v>
+        <v>0.1893679774420151</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6781700266543624</v>
+        <v>0.7602342118901603</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06456283941915589</v>
+        <v>0.05039781066782461</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6781700266543624</v>
+        <v>0.7602342118901603</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2229,20 +2109,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_22.fasta</t>
+          <t>label_20298_2_33_14.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3074816345393066</v>
+        <v>0.1829371712364428</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5952064037652207</v>
+        <v>0.7676157396390664</v>
       </c>
       <c r="D40" t="n">
-        <v>0.09731196169547268</v>
+        <v>0.04944708912449086</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5952064037652207</v>
+        <v>0.7676157396390664</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2253,20 +2133,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_24.fasta</t>
+          <t>label_20298_2_33_15.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1820134734430988</v>
+        <v>0.2063803605227421</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7708404408842827</v>
+        <v>0.7400730906603952</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04714608567261835</v>
+        <v>0.05354654881686281</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7708404408842827</v>
+        <v>0.7400730906603952</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2277,20 +2157,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_29.fasta</t>
+          <t>label_20298_2_33_17.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1216944297084891</v>
+        <v>0.1874138386135316</v>
       </c>
       <c r="C42" t="n">
-        <v>0.836403723337739</v>
+        <v>0.7638321915265692</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04190184695377188</v>
+        <v>0.04875396985989917</v>
       </c>
       <c r="E42" t="n">
-        <v>0.836403723337739</v>
+        <v>0.7638321915265692</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2301,20 +2181,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_34.fasta</t>
+          <t>label_20298_2_33_2.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1275904400252056</v>
+        <v>0.1958338007356952</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8280843145540326</v>
+        <v>0.7546864264440358</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04432524542076172</v>
+        <v>0.04947977282026896</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8280843145540326</v>
+        <v>0.7546864264440358</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2325,20 +2205,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_39.fasta</t>
+          <t>label_20298_2_33_28.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1137052134356055</v>
+        <v>0.1899263128088804</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8461367582528709</v>
+        <v>0.762352918598401</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0401580283115235</v>
+        <v>0.04772076859271868</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8461367582528709</v>
+        <v>0.762352918598401</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2349,20 +2229,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_40.fasta</t>
+          <t>label_20298_2_33_3.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1192927753193451</v>
+        <v>0.1821529060279687</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8391736613857118</v>
+        <v>0.7685139344132406</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04153356329494311</v>
+        <v>0.04933315955879077</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8391736613857118</v>
+        <v>0.7685139344132406</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2373,20 +2253,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_42.fasta</t>
+          <t>label_20298_2_33_32.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1911227470390997</v>
+        <v>0.1861844656762326</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7602735134571079</v>
+        <v>0.7660283781468908</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04860373950379245</v>
+        <v>0.04778715617687652</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7602735134571079</v>
+        <v>0.7660283781468908</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2397,20 +2277,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_47.fasta</t>
+          <t>label_20298_2_33_41.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1430886309023164</v>
+        <v>0.1831124773264281</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8123876188952318</v>
+        <v>0.7704269271322096</v>
       </c>
       <c r="D47" t="n">
-        <v>0.04452375020245188</v>
+        <v>0.04646059554136232</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8123876188952318</v>
+        <v>0.7704269271322096</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2421,20 +2301,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_51.fasta</t>
+          <t>label_20298_2_33_43.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.153857926260396</v>
+        <v>0.1845595273719692</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8015070716185573</v>
+        <v>0.7693321820112922</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04463500212104675</v>
+        <v>0.04610829061673858</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8015070716185573</v>
+        <v>0.7693321820112922</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2445,20 +2325,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_52.fasta</t>
+          <t>label_20298_2_33_46.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1226948159582451</v>
+        <v>0.1935265277317911</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8397186336322318</v>
+        <v>0.7585935640361674</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03758655040952305</v>
+        <v>0.04787990823204145</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8397186336322318</v>
+        <v>0.7585935640361674</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2469,20 +2349,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_53.fasta</t>
+          <t>label_20298_2_33_57.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1237133819221708</v>
+        <v>0.193640725326323</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8380720494787777</v>
+        <v>0.7581765832677588</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03821456859905153</v>
+        <v>0.04818269140591808</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8380720494787777</v>
+        <v>0.7581765832677588</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2493,20 +2373,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_65.fasta</t>
+          <t>label_20298_2_33_59.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1020705009848511</v>
+        <v>0.1937414227841137</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8503778764269095</v>
+        <v>0.757268538201663</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04755162258823939</v>
+        <v>0.04899003901422328</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8503778764269095</v>
+        <v>0.757268538201663</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2517,20 +2397,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_69.fasta</t>
+          <t>label_20298_2_33_62.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.09637504392838185</v>
+        <v>0.182621002480677</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8407753543952896</v>
+        <v>0.7700176435317297</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06284960167632866</v>
+        <v>0.04736135398759318</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8407753543952896</v>
+        <v>0.7700176435317297</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2541,20 +2421,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_74.fasta</t>
+          <t>label_20298_2_33_67.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.203184951752141</v>
+        <v>0.1779999202932856</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6149020033295288</v>
+        <v>0.7713334378499375</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1819130449183302</v>
+        <v>0.0506666418567769</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6149020033295288</v>
+        <v>0.7713334378499375</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2565,20 +2445,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_8.fasta</t>
+          <t>label_20298_2_33_71.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1156311914068282</v>
+        <v>0.1766307164715774</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8374865731708933</v>
+        <v>0.7749397214086913</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04688223542227844</v>
+        <v>0.0484295621197313</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8374865731708933</v>
+        <v>0.7749397214086913</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2589,20 +2469,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_84.fasta</t>
+          <t>label_20298_2_33_78.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03683630798930981</v>
+        <v>0.1225868864541537</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6835542336403729</v>
+        <v>0.8050171799433359</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2796094583703173</v>
+        <v>0.07239593360251025</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6835542336403729</v>
+        <v>0.8050171799433359</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2613,20 +2493,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_9.fasta</t>
+          <t>label_20298_2_33_81.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1562896479067234</v>
+        <v>0.2073519031728632</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7823939844352261</v>
+        <v>0.7225863404928222</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06131636765805042</v>
+        <v>0.07006175633431469</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7823939844352261</v>
+        <v>0.7225863404928222</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2637,20 +2517,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_1.fasta</t>
+          <t>label_20298_2_33_18.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1893679774420151</v>
+        <v>0.07643355668748478</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7602342118901603</v>
+        <v>0.8383493316553753</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05039781066782461</v>
+        <v>0.08521711165713998</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7602342118901603</v>
+        <v>0.8383493316553753</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2661,20 +2541,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_14.fasta</t>
+          <t>label_20298_2_33_20.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1829371712364428</v>
+        <v>0.0548842786762894</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7676157396390664</v>
+        <v>0.8499004971642087</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04944708912449086</v>
+        <v>0.09521522415950202</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7676157396390664</v>
+        <v>0.8499004971642087</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2685,20 +2565,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_15.fasta</t>
+          <t>label_20298_2_33_25.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2063803605227421</v>
+        <v>0.1489892181175816</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7400730906603952</v>
+        <v>0.7792329578394568</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05354654881686281</v>
+        <v>0.0717778240429615</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7400730906603952</v>
+        <v>0.7792329578394568</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2709,20 +2589,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_17.fasta</t>
+          <t>label_20298_2_33_26.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1874138386135316</v>
+        <v>0.1253452450752242</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7638321915265692</v>
+        <v>0.8009788462108648</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04875396985989917</v>
+        <v>0.07367590871391089</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7638321915265692</v>
+        <v>0.8009788462108648</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2733,20 +2613,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_2.fasta</t>
+          <t>label_20298_2_33_30.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1958338007356952</v>
+        <v>0.0750680503212711</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7546864264440358</v>
+        <v>0.8419893379590885</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04947977282026896</v>
+        <v>0.08294261171964044</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7546864264440358</v>
+        <v>0.8419893379590885</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2757,20 +2637,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_28.fasta</t>
+          <t>label_20298_2_33_33.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1899263128088804</v>
+        <v>0.1020456226117254</v>
       </c>
       <c r="C62" t="n">
-        <v>0.762352918598401</v>
+        <v>0.8216874955696162</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04772076859271868</v>
+        <v>0.07626688181865859</v>
       </c>
       <c r="E62" t="n">
-        <v>0.762352918598401</v>
+        <v>0.8216874955696162</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2781,20 +2661,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_3.fasta</t>
+          <t>label_20298_2_33_37.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1821529060279687</v>
+        <v>0.08658241566448217</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7685139344132406</v>
+        <v>0.8449826744315999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04933315955879077</v>
+        <v>0.06843490990391775</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7685139344132406</v>
+        <v>0.8449826744315999</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2805,20 +2685,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_32.fasta</t>
+          <t>label_20298_2_33_38.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1861844656762326</v>
+        <v>0.09181798427315033</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7660283781468908</v>
+        <v>0.8390750994117243</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04778715617687652</v>
+        <v>0.06910691631512535</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7660283781468908</v>
+        <v>0.8390750994117243</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2829,20 +2709,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_41.fasta</t>
+          <t>label_20298_2_33_49.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1831124773264281</v>
+        <v>0.05637959970135117</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7704269271322096</v>
+        <v>0.861025184541523</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04646059554136232</v>
+        <v>0.08259521575712586</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7704269271322096</v>
+        <v>0.861025184541523</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2853,20 +2733,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_43.fasta</t>
+          <t>label_20298_2_33_55.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1845595273719692</v>
+        <v>0.0863593321779873</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7693321820112922</v>
+        <v>0.8415047714635669</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04610829061673858</v>
+        <v>0.07213589635844567</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7693321820112922</v>
+        <v>0.8415047714635669</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2877,20 +2757,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_46.fasta</t>
+          <t>label_20298_2_33_60.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1935265277317911</v>
+        <v>0.07489954546262517</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7585935640361674</v>
+        <v>0.8308825395288206</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04787990823204145</v>
+        <v>0.09421791500855424</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7585935640361674</v>
+        <v>0.8308825395288206</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2901,20 +2781,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_57.fasta</t>
+          <t>label_20298_2_33_64.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.193640725326323</v>
+        <v>0.06557547278258762</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7581765832677588</v>
+        <v>0.8547636601717811</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04818269140591808</v>
+        <v>0.07966086704563138</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7581765832677588</v>
+        <v>0.8547636601717811</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2925,20 +2805,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_59.fasta</t>
+          <t>label_20298_2_33_68.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1937414227841137</v>
+        <v>0.007345636765024604</v>
       </c>
       <c r="C69" t="n">
-        <v>0.757268538201663</v>
+        <v>0.8802290812800214</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04899003901422328</v>
+        <v>0.1124252819549538</v>
       </c>
       <c r="E69" t="n">
-        <v>0.757268538201663</v>
+        <v>0.8802290812800214</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2949,20 +2829,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_62.fasta</t>
+          <t>label_20298_2_33_75.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.182621002480677</v>
+        <v>0.005491714997390348</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7700176435317297</v>
+        <v>0.8434230414179554</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04736135398759318</v>
+        <v>0.1510852435846541</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7700176435317297</v>
+        <v>0.8434230414179554</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2973,20 +2853,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_67.fasta</t>
+          <t>label_20298_2_33_76.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1779999202932856</v>
+        <v>0.0006537890655316057</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7713334378499375</v>
+        <v>0.862570270680711</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0506666418567769</v>
+        <v>0.1367759402537573</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7713334378499375</v>
+        <v>0.862570270680711</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2997,20 +2877,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_71.fasta</t>
+          <t>label_20298_2_33_77.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1766307164715774</v>
+        <v>5.317870272834065e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7749397214086913</v>
+        <v>0.762664639224037</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0484295621197313</v>
+        <v>0.2372821820732346</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7749397214086913</v>
+        <v>0.762664639224037</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3021,20 +2901,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_78.fasta</t>
+          <t>label_20298_2_33_79.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1225868864541537</v>
+        <v>0.00639160641910892</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8050171799433359</v>
+        <v>0.8216223391360595</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07239593360251025</v>
+        <v>0.1719860544448314</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8050171799433359</v>
+        <v>0.8216223391360595</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3045,20 +2925,20 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_81.fasta</t>
+          <t>label_20298_2_33_0.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2073519031728632</v>
+        <v>0.1895319358018912</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7225863404928222</v>
+        <v>0.7450294269537862</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07006175633431469</v>
+        <v>0.06543863724432245</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7225863404928222</v>
+        <v>0.7450294269537862</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3069,20 +2949,20 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_18.fasta</t>
+          <t>label_20298_2_33_10.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.07643355668748478</v>
+        <v>0.1379480313511016</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8383493316553753</v>
+        <v>0.7980109606726635</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08521711165713998</v>
+        <v>0.06404100797623488</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8383493316553753</v>
+        <v>0.7980109606726635</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3093,20 +2973,20 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_20.fasta</t>
+          <t>label_20298_2_33_16.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0548842786762894</v>
+        <v>0.1137446655282802</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8499004971642087</v>
+        <v>0.8169008124153978</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09521522415950202</v>
+        <v>0.06935452205632216</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8499004971642087</v>
+        <v>0.8169008124153978</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3117,20 +2997,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_25.fasta</t>
+          <t>label_20298_2_33_23.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1489892181175816</v>
+        <v>0.1319311111277568</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7792329578394568</v>
+        <v>0.808084426355603</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0717778240429615</v>
+        <v>0.05998446251664031</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7792329578394568</v>
+        <v>0.808084426355603</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3141,20 +3021,20 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_26.fasta</t>
+          <t>label_20298_2_33_31.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1253452450752242</v>
+        <v>0.1507363493271283</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8009788462108648</v>
+        <v>0.7977879217632647</v>
       </c>
       <c r="D78" t="n">
-        <v>0.07367590871391089</v>
+        <v>0.05147572890960692</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8009788462108648</v>
+        <v>0.7977879217632647</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3165,20 +3045,20 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_30.fasta</t>
+          <t>label_20298_2_33_35.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.0750680503212711</v>
+        <v>0.1062662620666568</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8419893379590885</v>
+        <v>0.8350239452276312</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08294261171964044</v>
+        <v>0.05870979270571199</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8419893379590885</v>
+        <v>0.8350239452276312</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3189,20 +3069,20 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_33.fasta</t>
+          <t>label_20298_2_33_45.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1020456226117254</v>
+        <v>0.1043344498361561</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8216874955696162</v>
+        <v>0.8421843646522853</v>
       </c>
       <c r="D80" t="n">
-        <v>0.07626688181865859</v>
+        <v>0.05348118551155864</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8216874955696162</v>
+        <v>0.8421843646522853</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3213,20 +3093,20 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_37.fasta</t>
+          <t>label_20298_2_33_50.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08658241566448217</v>
+        <v>0.09636904892211191</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8449826744315999</v>
+        <v>0.8524488449202944</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06843490990391775</v>
+        <v>0.05118210615759362</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8449826744315999</v>
+        <v>0.8524488449202944</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3237,20 +3117,20 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_38.fasta</t>
+          <t>label_20298_2_33_56.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.09181798427315033</v>
+        <v>0.1467988279682618</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8390750994117243</v>
+        <v>0.8025595900706042</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06910691631512535</v>
+        <v>0.050641581961134</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8390750994117243</v>
+        <v>0.8025595900706042</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3261,20 +3141,20 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_49.fasta</t>
+          <t>label_20298_2_33_63.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.05637959970135117</v>
+        <v>0.1139177185544298</v>
       </c>
       <c r="C83" t="n">
-        <v>0.861025184541523</v>
+        <v>0.8314628395694569</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08259521575712586</v>
+        <v>0.05461944187611333</v>
       </c>
       <c r="E83" t="n">
-        <v>0.861025184541523</v>
+        <v>0.8314628395694569</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3285,20 +3165,20 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_55.fasta</t>
+          <t>label_20298_2_33_66.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0863593321779873</v>
+        <v>0.1494890891478263</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8415047714635669</v>
+        <v>0.7985863350940757</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07213589635844567</v>
+        <v>0.05192457575809788</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8415047714635669</v>
+        <v>0.7985863350940757</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3309,20 +3189,20 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_60.fasta</t>
+          <t>label_20298_2_33_73.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.07489954546262517</v>
+        <v>0.2659071594852657</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8308825395288206</v>
+        <v>0.693244132603813</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09421791500855424</v>
+        <v>0.04084870791092122</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8308825395288206</v>
+        <v>0.693244132603813</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3333,44 +3213,44 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_64.fasta</t>
+          <t>label_20298_2_33_80.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.06557547278258762</v>
+        <v>0.4622769215879934</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8547636601717811</v>
+        <v>0.4295147436758451</v>
       </c>
       <c r="D86" t="n">
-        <v>0.07966086704563138</v>
+        <v>0.1082083347361614</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8547636601717811</v>
+        <v>0.4622769215879934</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>s__Enterococcus_B faecium</t>
+          <t>s__Enterococcus_B durans</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_68.fasta</t>
+          <t>label_20298_2_33_85.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.007345636765024604</v>
+        <v>0.1812009247818391</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8802290812800214</v>
+        <v>0.5298583833779542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1124252819549538</v>
+        <v>0.2889406918402067</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8802290812800214</v>
+        <v>0.5298583833779542</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3381,478 +3261,46 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_75.fasta</t>
+          <t>label_20298_2_33_86.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.005491714997390348</v>
+        <v>0.707941948761194</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8434230414179554</v>
+        <v>0.1624803958654623</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1510852435846541</v>
+        <v>0.1295776553733437</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8434230414179554</v>
+        <v>0.707941948761194</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>s__Enterococcus_B faecium</t>
+          <t>s__Enterococcus_B durans</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_33_76.fasta</t>
+          <t>label_20298_2_33_88.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0006537890655316057</v>
+        <v>0.5715450346992589</v>
       </c>
       <c r="C89" t="n">
-        <v>0.862570270680711</v>
+        <v>0.2884900551060636</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1367759402537573</v>
+        <v>0.1399649101946774</v>
       </c>
       <c r="E89" t="n">
-        <v>0.862570270680711</v>
+        <v>0.5715450346992589</v>
       </c>
       <c r="F89" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_77.fasta</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>5.317870272834065e-05</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.762664639224037</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.2372821820732346</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.762664639224037</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_79.fasta</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.00639160641910892</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.8216223391360595</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.1719860544448314</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.8216223391360595</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_0.fasta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.1895319358018912</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.7450294269537862</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.06543863724432245</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.7450294269537862</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_10.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.1379480313511016</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.7980109606726635</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.06404100797623488</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.7980109606726635</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_16.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.1137446655282802</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.8169008124153978</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.06935452205632216</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.8169008124153978</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_23.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.1319311111277568</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.808084426355603</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.05998446251664031</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.808084426355603</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_31.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.1507363493271283</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.7977879217632647</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.05147572890960692</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.7977879217632647</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_35.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.1062662620666568</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.8350239452276312</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.05870979270571199</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.8350239452276312</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_45.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.1043344498361561</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.8421843646522853</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.05348118551155864</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.8421843646522853</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_50.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.09636904892211191</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.8524488449202944</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.05118210615759362</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.8524488449202944</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_56.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.1467988279682618</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.8025595900706042</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.050641581961134</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.8025595900706042</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_63.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.1139177185544298</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.8314628395694569</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.05461944187611333</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.8314628395694569</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_66.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.1494890891478263</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.7985863350940757</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.05192457575809788</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.7985863350940757</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_73.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.2659071594852657</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.693244132603813</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.04084870791092122</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.693244132603813</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_80.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.4622769215879934</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.4295147436758451</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.1082083347361614</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.4622769215879934</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B durans</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_85.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.1812009247818391</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.5298583833779542</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.2889406918402067</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.5298583833779542</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_86.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.707941948761194</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.1624803958654623</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.1295776553733437</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.707941948761194</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B durans</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_33_88.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.5715450346992589</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.2884900551060636</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.1399649101946774</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.5715450346992589</v>
-      </c>
-      <c r="F107" t="inlineStr">
         <is>
           <t>s__Enterococcus_B durans</t>
         </is>
@@ -3869,7 +3317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3960,20 +3408,20 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159675_0.fasta</t>
+          <t>label_GCF_000159675_7.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.184106121014518</v>
+        <v>0.1665284798447431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7631102511686984</v>
+        <v>0.7578286716938393</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05278362781678349</v>
+        <v>0.07564284846141749</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7631102511686984</v>
+        <v>0.7578286716938393</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3984,20 +3432,20 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159675_7.fasta</t>
+          <t>label_GCF_000159675_3.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1665284798447431</v>
+        <v>0.1948583308859589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7578286716938393</v>
+        <v>0.7524295128238149</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07564284846141749</v>
+        <v>0.05271215629022635</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7578286716938393</v>
+        <v>0.7524295128238149</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4008,20 +3456,20 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159675_3.fasta</t>
+          <t>label_GCF_000159675_4.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1948583308859589</v>
+        <v>0.195857080521854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7524295128238149</v>
+        <v>0.7529359452798761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05271215629022635</v>
+        <v>0.05120697419826985</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7524295128238149</v>
+        <v>0.7529359452798761</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4032,20 +3480,20 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159675_4.fasta</t>
+          <t>label_GCF_000159675_6.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.195857080521854</v>
+        <v>0.1992799770888204</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7529359452798761</v>
+        <v>0.7481212748108825</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05120697419826985</v>
+        <v>0.05259874810029711</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7529359452798761</v>
+        <v>0.7481212748108825</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4056,20 +3504,20 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159675_6.fasta</t>
+          <t>label_GCF_000159675_1.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1992799770888204</v>
+        <v>0.08773536901582785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7481212748108825</v>
+        <v>0.8171970118651902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05259874810029711</v>
+        <v>0.09506761911898182</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7481212748108825</v>
+        <v>0.8171970118651902</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4080,20 +3528,20 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159675_1.fasta</t>
+          <t>label_GCF_000159675_2.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08773536901582785</v>
+        <v>0.1144781580276342</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8171970118651902</v>
+        <v>0.7983831019291177</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09506761911898182</v>
+        <v>0.08713874004324818</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8171970118651902</v>
+        <v>0.7983831019291177</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4104,46 +3552,22 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000159675_2.fasta</t>
+          <t>label_GCF_000159675_5.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1144781580276342</v>
+        <v>0.2848062818860371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7983831019291177</v>
+        <v>0.6672032815607361</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08713874004324818</v>
+        <v>0.0479904365532268</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7983831019291177</v>
+        <v>0.6672032815607361</v>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>s__Enterococcus_B faecium</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000159675_5.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.2848062818860371</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6672032815607361</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0479904365532268</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6672032815607361</v>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>s__Enterococcus_B faecium</t>
         </is>
